--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.135683874159643E-07</v>
+        <v>0.0004805646627243349</v>
       </c>
       <c r="E2">
-        <v>1.135683874159643E-07</v>
+        <v>0.0004805646627243349</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.122640431613198E-95</v>
+        <v>1.292333735802039E-116</v>
       </c>
       <c r="E3">
-        <v>6.122640431613198E-95</v>
+        <v>1.292333735802039E-116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5.137594736078454E-13</v>
+        <v>3.396911391255579E-14</v>
       </c>
       <c r="E4">
-        <v>5.137594736078454E-13</v>
+        <v>3.396911391255579E-14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.581925353430357E-65</v>
+        <v>1.512258224335463E-53</v>
       </c>
       <c r="E5">
-        <v>2.581925353430357E-65</v>
+        <v>1.512258224335463E-53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.113491021053426E-16</v>
+        <v>2.547021547914947E-29</v>
       </c>
       <c r="E6">
-        <v>1.113491021053426E-16</v>
+        <v>2.547021547914947E-29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.989033104287782E-24</v>
+        <v>2.675198722626877E-36</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.470106289648295E-08</v>
+        <v>5.496942302624414E-07</v>
       </c>
       <c r="E10">
-        <v>0.9999999752989371</v>
+        <v>0.9999994503057698</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.001252648230277125</v>
+        <v>7.663323343990121E-08</v>
       </c>
       <c r="E11">
-        <v>0.9987473517697228</v>
+        <v>0.9999999233667666</v>
       </c>
       <c r="F11">
-        <v>133.8293151855469</v>
+        <v>105.1679229736328</v>
       </c>
       <c r="G11">
         <v>0.6</v>
